--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Gpr151</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.642758</v>
+        <v>1.061714666666667</v>
       </c>
       <c r="H2">
-        <v>4.928274</v>
+        <v>3.185144</v>
       </c>
       <c r="I2">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343294</v>
       </c>
       <c r="J2">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343293</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.271848</v>
+        <v>0.336217</v>
       </c>
       <c r="N2">
-        <v>0.815544</v>
+        <v>1.008651</v>
       </c>
       <c r="O2">
-        <v>0.1256018707893686</v>
+        <v>0.1376522887391218</v>
       </c>
       <c r="P2">
-        <v>0.1256018707893686</v>
+        <v>0.1376522887391219</v>
       </c>
       <c r="Q2">
-        <v>0.446580476784</v>
+        <v>0.3569665200826667</v>
       </c>
       <c r="R2">
-        <v>4.019224291056</v>
+        <v>3.212698680744</v>
       </c>
       <c r="S2">
-        <v>0.01043902114434232</v>
+        <v>0.01352726927061438</v>
       </c>
       <c r="T2">
-        <v>0.01043902114434232</v>
+        <v>0.01352726927061438</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.642758</v>
+        <v>1.061714666666667</v>
       </c>
       <c r="H3">
-        <v>4.928274</v>
+        <v>3.185144</v>
       </c>
       <c r="I3">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343294</v>
       </c>
       <c r="J3">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343293</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.570927</v>
       </c>
       <c r="O3">
-        <v>0.2419383504428093</v>
+        <v>0.2143870347544219</v>
       </c>
       <c r="P3">
-        <v>0.2419383504428093</v>
+        <v>0.214387034754422</v>
       </c>
       <c r="Q3">
-        <v>0.860217632222</v>
+        <v>0.5559587453875556</v>
       </c>
       <c r="R3">
-        <v>7.741958689998</v>
+        <v>5.003628708488</v>
       </c>
       <c r="S3">
-        <v>0.02010797721424993</v>
+        <v>0.02106809246555889</v>
       </c>
       <c r="T3">
-        <v>0.02010797721424993</v>
+        <v>0.02106809246555889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.642758</v>
+        <v>1.061714666666667</v>
       </c>
       <c r="H4">
-        <v>4.928274</v>
+        <v>3.185144</v>
       </c>
       <c r="I4">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343294</v>
       </c>
       <c r="J4">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343293</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.045695333333333</v>
+        <v>1.197380666666667</v>
       </c>
       <c r="N4">
-        <v>3.137086</v>
+        <v>3.592142</v>
       </c>
       <c r="O4">
-        <v>0.4831423815602068</v>
+        <v>0.4902256258863835</v>
       </c>
       <c r="P4">
-        <v>0.4831423815602068</v>
+        <v>0.4902256258863836</v>
       </c>
       <c r="Q4">
-        <v>1.717824374396</v>
+        <v>1.271276615383111</v>
       </c>
       <c r="R4">
-        <v>15.460419369564</v>
+        <v>11.441489538448</v>
       </c>
       <c r="S4">
-        <v>0.0401549236897338</v>
+        <v>0.0481751092224003</v>
       </c>
       <c r="T4">
-        <v>0.0401549236897338</v>
+        <v>0.04817510922240031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.642758</v>
+        <v>1.061714666666667</v>
       </c>
       <c r="H5">
-        <v>4.928274</v>
+        <v>3.185144</v>
       </c>
       <c r="I5">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343294</v>
       </c>
       <c r="J5">
-        <v>0.08311198773343359</v>
+        <v>0.09827129933343293</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.323177</v>
+        <v>0.3852693333333333</v>
       </c>
       <c r="N5">
-        <v>0.9695309999999999</v>
+        <v>1.155808</v>
       </c>
       <c r="O5">
-        <v>0.1493173972076152</v>
+        <v>0.1577350506200726</v>
       </c>
       <c r="P5">
-        <v>0.1493173972076152</v>
+        <v>0.1577350506200727</v>
       </c>
       <c r="Q5">
-        <v>0.530901602166</v>
+        <v>0.4090461018168889</v>
       </c>
       <c r="R5">
-        <v>4.778114419494</v>
+        <v>3.681414916352</v>
       </c>
       <c r="S5">
-        <v>0.01241006568510755</v>
+        <v>0.01550082837485936</v>
       </c>
       <c r="T5">
-        <v>0.01241006568510755</v>
+        <v>0.01550082837485936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.71826</v>
+        <v>1.642758</v>
       </c>
       <c r="H6">
-        <v>53.15478</v>
+        <v>4.928274</v>
       </c>
       <c r="I6">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="J6">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.271848</v>
+        <v>0.336217</v>
       </c>
       <c r="N6">
-        <v>0.815544</v>
+        <v>1.008651</v>
       </c>
       <c r="O6">
-        <v>0.1256018707893686</v>
+        <v>0.1376522887391218</v>
       </c>
       <c r="P6">
-        <v>0.1256018707893686</v>
+        <v>0.1376522887391219</v>
       </c>
       <c r="Q6">
-        <v>4.81667354448</v>
+        <v>0.552323166486</v>
       </c>
       <c r="R6">
-        <v>43.35006190032001</v>
+        <v>4.970908498374</v>
       </c>
       <c r="S6">
-        <v>0.1125919281969436</v>
+        <v>0.02093032196891814</v>
       </c>
       <c r="T6">
-        <v>0.1125919281969436</v>
+        <v>0.02093032196891815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.71826</v>
+        <v>1.642758</v>
       </c>
       <c r="H7">
-        <v>53.15478</v>
+        <v>4.928274</v>
       </c>
       <c r="I7">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="J7">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.570927</v>
       </c>
       <c r="O7">
-        <v>0.2419383504428093</v>
+        <v>0.2143870347544219</v>
       </c>
       <c r="P7">
-        <v>0.2419383504428093</v>
+        <v>0.214387034754422</v>
       </c>
       <c r="Q7">
-        <v>9.278031009006666</v>
+        <v>0.860217632222</v>
       </c>
       <c r="R7">
-        <v>83.50227908106</v>
+        <v>7.741958689998</v>
       </c>
       <c r="S7">
-        <v>0.2168781819088118</v>
+        <v>0.03259800257935268</v>
       </c>
       <c r="T7">
-        <v>0.2168781819088118</v>
+        <v>0.0325980025793527</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.71826</v>
+        <v>1.642758</v>
       </c>
       <c r="H8">
-        <v>53.15478</v>
+        <v>4.928274</v>
       </c>
       <c r="I8">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="J8">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.045695333333333</v>
+        <v>1.197380666666667</v>
       </c>
       <c r="N8">
-        <v>3.137086</v>
+        <v>3.592142</v>
       </c>
       <c r="O8">
-        <v>0.4831423815602068</v>
+        <v>0.4902256258863835</v>
       </c>
       <c r="P8">
-        <v>0.4831423815602068</v>
+        <v>0.4902256258863836</v>
       </c>
       <c r="Q8">
-        <v>18.52790179678667</v>
+        <v>1.967006669212</v>
       </c>
       <c r="R8">
-        <v>166.75111617108</v>
+        <v>17.703060022908</v>
       </c>
       <c r="S8">
-        <v>0.4330981058773494</v>
+        <v>0.07453984442396186</v>
       </c>
       <c r="T8">
-        <v>0.4330981058773494</v>
+        <v>0.07453984442396187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.71826</v>
+        <v>1.642758</v>
       </c>
       <c r="H9">
-        <v>53.15478</v>
+        <v>4.928274</v>
       </c>
       <c r="I9">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="J9">
-        <v>0.8964191973363009</v>
+        <v>0.1520521174085614</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.323177</v>
+        <v>0.3852693333333333</v>
       </c>
       <c r="N9">
-        <v>0.9695309999999999</v>
+        <v>1.155808</v>
       </c>
       <c r="O9">
-        <v>0.1493173972076152</v>
+        <v>0.1577350506200726</v>
       </c>
       <c r="P9">
-        <v>0.1493173972076152</v>
+        <v>0.1577350506200727</v>
       </c>
       <c r="Q9">
-        <v>5.72613411202</v>
+        <v>0.6329042794879999</v>
       </c>
       <c r="R9">
-        <v>51.53520700818</v>
+        <v>5.696138515392</v>
       </c>
       <c r="S9">
-        <v>0.1338509813531961</v>
+        <v>0.02398394843632866</v>
       </c>
       <c r="T9">
-        <v>0.1338509813531961</v>
+        <v>0.02398394843632867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4045783333333333</v>
+        <v>7.792831666666667</v>
       </c>
       <c r="H10">
-        <v>1.213735</v>
+        <v>23.378495</v>
       </c>
       <c r="I10">
-        <v>0.02046881493026545</v>
+        <v>0.7212970842480482</v>
       </c>
       <c r="J10">
-        <v>0.02046881493026545</v>
+        <v>0.7212970842480481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.271848</v>
+        <v>0.336217</v>
       </c>
       <c r="N10">
-        <v>0.815544</v>
+        <v>1.008651</v>
       </c>
       <c r="O10">
-        <v>0.1256018707893686</v>
+        <v>0.1376522887391218</v>
       </c>
       <c r="P10">
-        <v>0.1256018707893686</v>
+        <v>0.1376522887391219</v>
       </c>
       <c r="Q10">
-        <v>0.10998381076</v>
+        <v>2.620082484471667</v>
       </c>
       <c r="R10">
-        <v>0.98985429684</v>
+        <v>23.580742360245</v>
       </c>
       <c r="S10">
-        <v>0.0025709214480827</v>
+        <v>0.09928819450759901</v>
       </c>
       <c r="T10">
-        <v>0.0025709214480827</v>
+        <v>0.09928819450759901</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4045783333333333</v>
+        <v>7.792831666666667</v>
       </c>
       <c r="H11">
-        <v>1.213735</v>
+        <v>23.378495</v>
       </c>
       <c r="I11">
-        <v>0.02046881493026545</v>
+        <v>0.7212970842480482</v>
       </c>
       <c r="J11">
-        <v>0.02046881493026545</v>
+        <v>0.7212970842480481</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.570927</v>
       </c>
       <c r="O11">
-        <v>0.2419383504428093</v>
+        <v>0.2143870347544219</v>
       </c>
       <c r="P11">
-        <v>0.2419383504428093</v>
+        <v>0.214387034754422</v>
       </c>
       <c r="Q11">
-        <v>0.2118543424827778</v>
+        <v>4.080656557207223</v>
       </c>
       <c r="R11">
-        <v>1.906689082345</v>
+        <v>36.725909014865</v>
       </c>
       <c r="S11">
-        <v>0.004952191319747569</v>
+        <v>0.1546367430689495</v>
       </c>
       <c r="T11">
-        <v>0.004952191319747569</v>
+        <v>0.1546367430689495</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4045783333333333</v>
+        <v>7.792831666666667</v>
       </c>
       <c r="H12">
-        <v>1.213735</v>
+        <v>23.378495</v>
       </c>
       <c r="I12">
-        <v>0.02046881493026545</v>
+        <v>0.7212970842480482</v>
       </c>
       <c r="J12">
-        <v>0.02046881493026545</v>
+        <v>0.7212970842480481</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.045695333333333</v>
+        <v>1.197380666666667</v>
       </c>
       <c r="N12">
-        <v>3.137086</v>
+        <v>3.592142</v>
       </c>
       <c r="O12">
-        <v>0.4831423815602068</v>
+        <v>0.4902256258863835</v>
       </c>
       <c r="P12">
-        <v>0.4831423815602068</v>
+        <v>0.4902256258863836</v>
       </c>
       <c r="Q12">
-        <v>0.4230656751344445</v>
+        <v>9.330985976254444</v>
       </c>
       <c r="R12">
-        <v>3.80759107621</v>
+        <v>83.97887378628999</v>
       </c>
       <c r="S12">
-        <v>0.009889351993123565</v>
+        <v>0.3535983145755229</v>
       </c>
       <c r="T12">
-        <v>0.009889351993123565</v>
+        <v>0.3535983145755229</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.792831666666667</v>
+      </c>
+      <c r="H13">
+        <v>23.378495</v>
+      </c>
+      <c r="I13">
+        <v>0.7212970842480482</v>
+      </c>
+      <c r="J13">
+        <v>0.7212970842480481</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3852693333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.155808</v>
+      </c>
+      <c r="O13">
+        <v>0.1577350506200726</v>
+      </c>
+      <c r="P13">
+        <v>0.1577350506200727</v>
+      </c>
+      <c r="Q13">
+        <v>3.002339060995555</v>
+      </c>
+      <c r="R13">
+        <v>27.02105154896</v>
+      </c>
+      <c r="S13">
+        <v>0.1137738320959767</v>
+      </c>
+      <c r="T13">
+        <v>0.1137738320959767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3066096666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.919829</v>
+      </c>
+      <c r="I14">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="J14">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.336217</v>
+      </c>
+      <c r="N14">
+        <v>1.008651</v>
+      </c>
+      <c r="O14">
+        <v>0.1376522887391218</v>
+      </c>
+      <c r="P14">
+        <v>0.1376522887391219</v>
+      </c>
+      <c r="Q14">
+        <v>0.1030873822976667</v>
+      </c>
+      <c r="R14">
+        <v>0.927786440679</v>
+      </c>
+      <c r="S14">
+        <v>0.003906502991990301</v>
+      </c>
+      <c r="T14">
+        <v>0.003906502991990302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3066096666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.919829</v>
+      </c>
+      <c r="I15">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="J15">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5236423333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.570927</v>
+      </c>
+      <c r="O15">
+        <v>0.2143870347544219</v>
+      </c>
+      <c r="P15">
+        <v>0.214387034754422</v>
+      </c>
+      <c r="Q15">
+        <v>0.1605538012758889</v>
+      </c>
+      <c r="R15">
+        <v>1.444984211483</v>
+      </c>
+      <c r="S15">
+        <v>0.006084196640560854</v>
+      </c>
+      <c r="T15">
+        <v>0.006084196640560856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.4045783333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.213735</v>
-      </c>
-      <c r="I13">
-        <v>0.02046881493026545</v>
-      </c>
-      <c r="J13">
-        <v>0.02046881493026545</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.323177</v>
-      </c>
-      <c r="N13">
-        <v>0.9695309999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.1493173972076152</v>
-      </c>
-      <c r="P13">
-        <v>0.1493173972076152</v>
-      </c>
-      <c r="Q13">
-        <v>0.1307504120316667</v>
-      </c>
-      <c r="R13">
-        <v>1.176753708285</v>
-      </c>
-      <c r="S13">
-        <v>0.003056350169311611</v>
-      </c>
-      <c r="T13">
-        <v>0.003056350169311611</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3066096666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.919829</v>
+      </c>
+      <c r="I16">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="J16">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.197380666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.592142</v>
+      </c>
+      <c r="O16">
+        <v>0.4902256258863835</v>
+      </c>
+      <c r="P16">
+        <v>0.4902256258863836</v>
+      </c>
+      <c r="Q16">
+        <v>0.3671284870797778</v>
+      </c>
+      <c r="R16">
+        <v>3.304156383718</v>
+      </c>
+      <c r="S16">
+        <v>0.01391235766449845</v>
+      </c>
+      <c r="T16">
+        <v>0.01391235766449845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3066096666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.919829</v>
+      </c>
+      <c r="I17">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="J17">
+        <v>0.02837949900995756</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3852693333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.155808</v>
+      </c>
+      <c r="O17">
+        <v>0.1577350506200726</v>
+      </c>
+      <c r="P17">
+        <v>0.1577350506200727</v>
+      </c>
+      <c r="Q17">
+        <v>0.1181273018702222</v>
+      </c>
+      <c r="R17">
+        <v>1.063145716832</v>
+      </c>
+      <c r="S17">
+        <v>0.004476441712907958</v>
+      </c>
+      <c r="T17">
+        <v>0.00447644171290796</v>
       </c>
     </row>
   </sheetData>
